--- a/FAIRe_checklist_v1.0.2_test.xlsx
+++ b/FAIRe_checklist_v1.0.2_test.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="checklists" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="checklist" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
